--- a/ONCHO/Entomological survey Survey/Nigeria/2024/delta/sites.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/delta/sites.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C496957-70E6-4363-8AF7-F388F05227C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAB409D-F539-4142-8ED8-49AE44AE1BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FAE0391E-1E1A-42DD-87F6-D4AFEA3E56AE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FAE0391E-1E1A-42DD-87F6-D4AFEA3E56AE}"/>
   </bookViews>
   <sheets>
     <sheet name="NOEC 2020 Sites" sheetId="1" r:id="rId1"/>
     <sheet name="Modellers Probability Sites" sheetId="3" r:id="rId2"/>
     <sheet name="Suggested Sites by LGA NTDC" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NOEC 2020 Sites'!$A$1:$R$95</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="366">
   <si>
     <t>SN</t>
   </si>
@@ -1045,6 +1046,102 @@
   </si>
   <si>
     <t>ATSURAN</t>
+  </si>
+  <si>
+    <t>UTOR RIVER 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>IYIOCHA</t>
+  </si>
+  <si>
+    <t>AZENOBA</t>
+  </si>
+  <si>
+    <t>NNABENYI SITE</t>
+  </si>
+  <si>
+    <t>IYI NWANENE</t>
+  </si>
+  <si>
+    <t>COMMUNITY</t>
+  </si>
+  <si>
+    <t>BUSH</t>
+  </si>
+  <si>
+    <t>IYI - NOMAGADE</t>
+  </si>
+  <si>
+    <t>IYI -ODO</t>
+  </si>
+  <si>
+    <t>IYE - MEPDKPA</t>
+  </si>
+  <si>
+    <t>UMUBE CAMP</t>
+  </si>
+  <si>
+    <t>UGBOLO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>OBIOZU</t>
+  </si>
+  <si>
+    <t>WATER SIDE</t>
+  </si>
+  <si>
+    <t>OGB - AGBOR</t>
+  </si>
+  <si>
+    <t>OKENU</t>
+  </si>
+  <si>
+    <t>IDUMU - OPO</t>
+  </si>
+  <si>
+    <t>OGDUGA QUARTER</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>ASHAMA ARI-UGBO</t>
+  </si>
+  <si>
+    <t>UMUONYA/JETTY QUARTERS</t>
+  </si>
+  <si>
+    <t>IKILIBI UNO</t>
+  </si>
+  <si>
+    <t>UTAGBA-UNO</t>
+  </si>
+  <si>
+    <t>UMUEZE</t>
+  </si>
+  <si>
+    <t>IGA</t>
+  </si>
+  <si>
+    <t>KETE OJO CAMP</t>
+  </si>
+  <si>
+    <t>EKPOCHA CAMP</t>
+  </si>
+  <si>
+    <t>ABONGENE 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>OKPANAM</t>
+  </si>
+  <si>
+    <t>OTU - OGWU</t>
+  </si>
+  <si>
+    <t>UMUSUME QUARTERS</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1160,11 +1257,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6448,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1A701D-AEF0-4B97-A031-8391F6CCD7B9}">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8925,6 +9073,2567 @@
     <sortCondition ref="L2:L95"/>
   </sortState>
   <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE43CC05-EBF6-4E85-A207-B66BC040FA93}">
+  <dimension ref="A1:O95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F66" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:O101">
+    <sortCondition ref="N2:N101"/>
+    <sortCondition ref="O2:O101"/>
+  </sortState>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
